--- a/Financial Information/VENTURE CORPORATION LIMITED.xlsx
+++ b/Financial Information/VENTURE CORPORATION LIMITED.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jtan848\Documents\Jeremy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Chia\Documents\GitHub\NLP-SustainabilityReports-FinancialPerformance\Financial Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EBC21C4A-ACB2-4197-A86C-771DFA52A192}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0AFE4-69D8-43F9-8D1C-EE4D8A6F81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17520" yWindow="-9060" windowWidth="14400" windowHeight="7365" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="2" r:id="rId1"/>
@@ -2501,7 +2501,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="172" formatCode="#,##0.0"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
   <fonts count="29" x14ac:knownFonts="1">
     <font>
@@ -3168,13 +3168,13 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2">
@@ -3183,7 +3183,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2">
@@ -3192,13 +3192,13 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="34" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="35" borderId="2">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2">
       <alignment horizontal="right"/>
     </xf>
   </cellStyleXfs>
@@ -3230,13 +3230,13 @@
     <xf numFmtId="3" fontId="1" fillId="34" borderId="2" xfId="53" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="34" borderId="2" xfId="54" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="34" borderId="2" xfId="55" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="1" fillId="35" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="35" borderId="2" xfId="56" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="1" fillId="35" borderId="2" xfId="57" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3245,7 +3245,7 @@
     <xf numFmtId="3" fontId="8" fillId="34" borderId="2" xfId="58" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="34" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="34" borderId="2" xfId="59" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="4" fontId="8" fillId="34" borderId="2" xfId="60" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -3254,13 +3254,13 @@
     <xf numFmtId="3" fontId="8" fillId="35" borderId="2" xfId="61" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="8" fillId="35" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="8" fillId="35" borderId="2" xfId="62" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="34" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="34" borderId="2" xfId="63" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="172" fontId="11" fillId="35" borderId="2" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="11" fillId="35" borderId="2" xfId="64" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -3671,14 +3671,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -3692,7 +3692,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>4</v>
       </c>
@@ -3708,7 +3708,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -3722,7 +3722,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -3758,7 +3758,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>27</v>
       </c>
@@ -3810,7 +3810,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>28</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>11.769299999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>30</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>9.0780999999999992</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>32</v>
       </c>
@@ -3924,7 +3924,7 @@
         <v>11.704499999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>34</v>
       </c>
@@ -3962,7 +3962,7 @@
         <v>10.9535</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -3976,7 +3976,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>36</v>
       </c>
@@ -3992,7 +3992,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>37</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>12.146699999999999</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>39</v>
       </c>
@@ -4068,7 +4068,7 @@
         <v>10.9596</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>41</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>13.886200000000001</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>43</v>
       </c>
@@ -4144,7 +4144,7 @@
         <v>11.5747</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>45</v>
       </c>
@@ -4182,7 +4182,7 @@
         <v>10.0533</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>47</v>
       </c>
@@ -4220,7 +4220,7 @@
         <v>10.044600000000001</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>49</v>
       </c>
@@ -4258,7 +4258,7 @@
         <v>10.044600000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -4272,7 +4272,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="6" t="s">
         <v>51</v>
       </c>
@@ -4288,7 +4288,7 @@
       <c r="K21" s="17"/>
       <c r="L21" s="17"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>52</v>
       </c>
@@ -4326,7 +4326,7 @@
         <v>13.144500000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>54</v>
       </c>
@@ -4364,7 +4364,7 @@
         <v>69.835999999999999</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>56</v>
       </c>
@@ -4402,7 +4402,7 @@
         <v>3.5501</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>58</v>
       </c>
@@ -4433,14 +4433,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -4454,7 +4454,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>627</v>
       </c>
@@ -4470,7 +4470,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -4484,7 +4484,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -4520,7 +4520,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -4556,7 +4556,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>628</v>
       </c>
@@ -4572,7 +4572,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>629</v>
       </c>
@@ -4588,7 +4588,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>630</v>
       </c>
@@ -4626,7 +4626,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>1</v>
       </c>
@@ -4664,7 +4664,7 @@
         <v>3107.4569999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>633</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="K10" s="12"/>
       <c r="L10" s="12"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>634</v>
       </c>
@@ -4718,7 +4718,7 @@
         <v>19.327999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>636</v>
       </c>
@@ -4756,7 +4756,7 @@
         <v>327.35000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>638</v>
       </c>
@@ -4794,7 +4794,7 @@
         <v>36.878999999999998</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>640</v>
       </c>
@@ -4832,7 +4832,7 @@
         <v>79.587999999999994</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>642</v>
       </c>
@@ -4870,7 +4870,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>644</v>
       </c>
@@ -4908,7 +4908,7 @@
         <v>2.41</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>646</v>
       </c>
@@ -4946,7 +4946,7 @@
         <v>-4.2149999999999999</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>648</v>
       </c>
@@ -4984,7 +4984,7 @@
         <v>2297.8939999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>650</v>
       </c>
@@ -5022,7 +5022,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>652</v>
       </c>
@@ -5060,7 +5060,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>654</v>
       </c>
@@ -5098,7 +5098,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>656</v>
       </c>
@@ -5136,7 +5136,7 @@
         <v>-0.79100000000000004</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>658</v>
       </c>
@@ -5174,7 +5174,7 @@
         <v>-6.7690000000000001</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>652</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>661</v>
       </c>
@@ -5228,7 +5228,7 @@
       <c r="K25" s="12"/>
       <c r="L25" s="12"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>662</v>
       </c>
@@ -5266,7 +5266,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>664</v>
       </c>
@@ -5304,7 +5304,7 @@
         <v>47.265999999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>666</v>
       </c>
@@ -5342,7 +5342,7 @@
         <v>-6.7690000000000001</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>668</v>
       </c>
@@ -5380,7 +5380,7 @@
         <v>359.58800000000002</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>670</v>
       </c>
@@ -5418,7 +5418,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>672</v>
       </c>
@@ -5456,7 +5456,7 @@
         <v>-0.19900000000000001</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>674</v>
       </c>
@@ -5472,7 +5472,7 @@
       <c r="K32" s="12"/>
       <c r="L32" s="12"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>675</v>
       </c>
@@ -5510,7 +5510,7 @@
         <v>0.27100000000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>677</v>
       </c>
@@ -5548,7 +5548,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>679</v>
       </c>
@@ -5586,7 +5586,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>681</v>
       </c>
@@ -5624,7 +5624,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>683</v>
       </c>
@@ -5662,7 +5662,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>685</v>
       </c>
@@ -5700,7 +5700,7 @@
         <v>312.322</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>687</v>
       </c>
@@ -5738,7 +5738,7 @@
         <v>312.05099999999999</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>689</v>
       </c>
@@ -5754,7 +5754,7 @@
       <c r="K40" s="12"/>
       <c r="L40" s="12"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>690</v>
       </c>
@@ -5770,7 +5770,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>691</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>29.385000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>693</v>
       </c>
@@ -5846,7 +5846,7 @@
         <v>1.508</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
         <v>695</v>
       </c>
@@ -5884,7 +5884,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
         <v>697</v>
       </c>
@@ -5922,7 +5922,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
         <v>699</v>
       </c>
@@ -5960,7 +5960,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
         <v>701</v>
       </c>
@@ -5998,7 +5998,7 @@
         <v>342.79599999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
         <v>703</v>
       </c>
@@ -6036,7 +6036,7 @@
         <v>0.41899999999999998</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>705</v>
       </c>
@@ -6074,7 +6074,7 @@
         <v>312.322</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>707</v>
       </c>
@@ -6112,7 +6112,7 @@
         <v>30.893000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
         <v>709</v>
       </c>
@@ -6150,7 +6150,7 @@
         <v>343.21499999999997</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>711</v>
       </c>
@@ -6166,7 +6166,7 @@
       <c r="K52" s="12"/>
       <c r="L52" s="12"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>712</v>
       </c>
@@ -6204,7 +6204,7 @@
         <v>25.863</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>714</v>
       </c>
@@ -6242,7 +6242,7 @@
         <v>0.16200000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>638</v>
       </c>
@@ -6280,7 +6280,7 @@
         <v>36.878999999999998</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>717</v>
       </c>
@@ -6318,7 +6318,7 @@
         <v>-0.115</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>642</v>
       </c>
@@ -6356,7 +6356,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>664</v>
       </c>
@@ -6394,7 +6394,7 @@
         <v>47.265999999999998</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>644</v>
       </c>
@@ -6432,7 +6432,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>677</v>
       </c>
@@ -6470,7 +6470,7 @@
         <v>107.5</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>679</v>
       </c>
@@ -6508,7 +6508,7 @@
         <v>290.40800000000002</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>681</v>
       </c>
@@ -6546,7 +6546,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>683</v>
       </c>
@@ -6584,7 +6584,7 @@
         <v>291.59899999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>726</v>
       </c>
@@ -6622,7 +6622,7 @@
         <v>1.958</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>654</v>
       </c>
@@ -6660,7 +6660,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>728</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>0.248</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>1</v>
       </c>
@@ -6736,7 +6736,7 @@
         <v>3107.4569999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>731</v>
       </c>
@@ -6774,7 +6774,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>733</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>3106.6660000000002</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>735</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>737</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>739</v>
       </c>
@@ -6926,7 +6926,7 @@
         <v>47.152999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>741</v>
       </c>
@@ -6964,7 +6964,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>743</v>
       </c>
@@ -7002,7 +7002,7 @@
         <v>312.05099999999999</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>745</v>
       </c>
@@ -7040,7 +7040,7 @@
         <v>312.05099999999999</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>747</v>
       </c>
@@ -7078,7 +7078,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>749</v>
       </c>
@@ -7116,7 +7116,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>751</v>
       </c>
@@ -7154,7 +7154,7 @@
         <v>-0.79100000000000004</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>753</v>
       </c>
@@ -7192,7 +7192,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>755</v>
       </c>
@@ -7230,7 +7230,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>757</v>
       </c>
@@ -7268,7 +7268,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>759</v>
       </c>
@@ -7306,7 +7306,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>761</v>
       </c>
@@ -7344,7 +7344,7 @@
         <v>17.919</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>763</v>
       </c>
@@ -7382,7 +7382,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>765</v>
       </c>
@@ -7420,7 +7420,7 @@
         <v>0.60399999999999998</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>767</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>769</v>
       </c>
@@ -7496,7 +7496,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>658</v>
       </c>
@@ -7534,7 +7534,7 @@
         <v>-6.7690000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>771</v>
       </c>
@@ -7572,7 +7572,7 @@
         <v>72.64</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>773</v>
       </c>
@@ -7610,7 +7610,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>775</v>
       </c>
@@ -7648,7 +7648,7 @@
         <v>145.28399999999999</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>777</v>
       </c>
@@ -7686,7 +7686,7 @@
         <v>0.90600000000000003</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>779</v>
       </c>
@@ -7724,7 +7724,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>781</v>
       </c>
@@ -7762,7 +7762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>783</v>
       </c>
@@ -7800,7 +7800,7 @@
         <v>327.35000000000002</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>785</v>
       </c>
@@ -7838,7 +7838,7 @@
         <v>7.9480000000000004</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>787</v>
       </c>
@@ -7876,7 +7876,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>789</v>
       </c>
@@ -7914,7 +7914,7 @@
         <v>1.504</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="10" t="s">
         <v>791</v>
       </c>
@@ -7952,7 +7952,7 @@
         <v>0.64500000000000002</v>
       </c>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A100" s="10" t="s">
         <v>793</v>
       </c>
@@ -7990,7 +7990,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A101" s="10" t="s">
         <v>795</v>
       </c>
@@ -8028,7 +8028,7 @@
         <v>11.8</v>
       </c>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A102" s="10" t="s">
         <v>797</v>
       </c>
@@ -8066,7 +8066,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A103" s="10" t="s">
         <v>799</v>
       </c>
@@ -8104,7 +8104,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A104" s="10" t="s">
         <v>801</v>
       </c>
@@ -8142,7 +8142,7 @@
         <v>0.42299999999999999</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A105" s="10" t="s">
         <v>803</v>
       </c>
@@ -8180,7 +8180,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A106" s="10" t="s">
         <v>805</v>
       </c>
@@ -8218,7 +8218,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A107" s="10" t="s">
         <v>807</v>
       </c>
@@ -8256,7 +8256,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A108" s="10" t="s">
         <v>809</v>
       </c>
@@ -8294,7 +8294,7 @@
         <v>3.1</v>
       </c>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A109" s="10" t="s">
         <v>811</v>
       </c>
@@ -8332,7 +8332,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A110" s="10" t="s">
         <v>813</v>
       </c>
@@ -8370,7 +8370,7 @@
         <v>10.792999999999999</v>
       </c>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A111" s="10" t="s">
         <v>815</v>
       </c>
@@ -8408,7 +8408,7 @@
         <v>1.958</v>
       </c>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A112" s="7" t="s">
         <v>58</v>
       </c>
@@ -8439,14 +8439,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -8460,7 +8460,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>59</v>
       </c>
@@ -8476,7 +8476,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -8490,7 +8490,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -8526,7 +8526,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -8562,7 +8562,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>60</v>
       </c>
@@ -8578,7 +8578,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>0</v>
       </c>
@@ -8616,7 +8616,7 @@
         <v>3.1400999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>62</v>
       </c>
@@ -8654,7 +8654,7 @@
         <v>2.2784</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>64</v>
       </c>
@@ -8692,7 +8692,7 @@
         <v>4.0122999999999998</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>66</v>
       </c>
@@ -8730,7 +8730,7 @@
         <v>4.9527999999999999</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>68</v>
       </c>
@@ -8768,7 +8768,7 @@
         <v>4.6966999999999999</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>70</v>
       </c>
@@ -8806,7 +8806,7 @@
         <v>4.6966999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>72</v>
       </c>
@@ -8844,7 +8844,7 @@
         <v>4.4747000000000003</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>74</v>
       </c>
@@ -8882,7 +8882,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -8896,7 +8896,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>76</v>
       </c>
@@ -8934,7 +8934,7 @@
         <v>18.011600000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>78</v>
       </c>
@@ -8972,7 +8972,7 @@
         <v>59.863500000000002</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>80</v>
       </c>
@@ -9010,7 +9010,7 @@
         <v>-7.7858999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>82</v>
       </c>
@@ -9048,7 +9048,7 @@
         <v>12.214399999999999</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>84</v>
       </c>
@@ -9086,7 +9086,7 @@
         <v>28.441700000000001</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>86</v>
       </c>
@@ -9124,7 +9124,7 @@
         <v>8.4712999999999994</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>88</v>
       </c>
@@ -9162,7 +9162,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>90</v>
       </c>
@@ -9200,7 +9200,7 @@
         <v>61.891800000000003</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10" t="s">
         <v>92</v>
       </c>
@@ -9238,7 +9238,7 @@
         <v>-13.597200000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>94</v>
       </c>
@@ -9276,7 +9276,7 @@
         <v>-35.4129</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>96</v>
       </c>
@@ -9314,7 +9314,7 @@
         <v>5.0334000000000003</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>98</v>
       </c>
@@ -9352,7 +9352,7 @@
         <v>4.7087000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>100</v>
       </c>
@@ -9390,7 +9390,7 @@
         <v>4.8289999999999997</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10"/>
       <c r="B29" s="12"/>
       <c r="C29" s="12"/>
@@ -9404,7 +9404,7 @@
       <c r="K29" s="12"/>
       <c r="L29" s="12"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>102</v>
       </c>
@@ -9442,7 +9442,7 @@
         <v>-76.560599999999994</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>104</v>
       </c>
@@ -9480,7 +9480,7 @@
         <v>-61.131500000000003</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>106</v>
       </c>
@@ -9518,7 +9518,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>108</v>
       </c>
@@ -9556,7 +9556,7 @@
         <v>-77.549300000000002</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>110</v>
       </c>
@@ -9594,7 +9594,7 @@
         <v>-76.522300000000001</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>112</v>
       </c>
@@ -9632,7 +9632,7 @@
         <v>-77.506600000000006</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10"/>
       <c r="B36" s="12"/>
       <c r="C36" s="12"/>
@@ -9646,7 +9646,7 @@
       <c r="K36" s="12"/>
       <c r="L36" s="12"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>114</v>
       </c>
@@ -9662,7 +9662,7 @@
       <c r="K37" s="17"/>
       <c r="L37" s="17"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>0</v>
       </c>
@@ -9700,7 +9700,7 @@
         <v>1.5691999999999999</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>62</v>
       </c>
@@ -9738,7 +9738,7 @@
         <v>8.5136000000000003</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>64</v>
       </c>
@@ -9776,7 +9776,7 @@
         <v>10.7447</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>66</v>
       </c>
@@ -9814,7 +9814,7 @@
         <v>11.5486</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>68</v>
       </c>
@@ -9852,7 +9852,7 @@
         <v>10.550800000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>70</v>
       </c>
@@ -9890,7 +9890,7 @@
         <v>10.550800000000001</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>72</v>
       </c>
@@ -9928,7 +9928,7 @@
         <v>9.9528999999999996</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>74</v>
       </c>
@@ -9966,7 +9966,7 @@
         <v>8.4472000000000005</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10"/>
       <c r="B46" s="12"/>
       <c r="C46" s="12"/>
@@ -9980,7 +9980,7 @@
       <c r="K46" s="12"/>
       <c r="L46" s="12"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>76</v>
       </c>
@@ -10018,7 +10018,7 @@
         <v>3.2414999999999998</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>78</v>
       </c>
@@ -10056,7 +10056,7 @@
         <v>10.992800000000001</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>80</v>
       </c>
@@ -10094,7 +10094,7 @@
         <v>2.2999000000000001</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>82</v>
       </c>
@@ -10132,7 +10132,7 @@
         <v>5.6749000000000001</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>84</v>
       </c>
@@ -10170,7 +10170,7 @@
         <v>7.7622999999999998</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>86</v>
       </c>
@@ -10208,7 +10208,7 @@
         <v>11.127599999999999</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>90</v>
       </c>
@@ -10246,7 +10246,7 @@
         <v>6.0372000000000003</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>92</v>
       </c>
@@ -10284,7 +10284,7 @@
         <v>-37.6477</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>94</v>
       </c>
@@ -10322,7 +10322,7 @@
         <v>-31.937899999999999</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>96</v>
       </c>
@@ -10360,7 +10360,7 @@
         <v>6.7413999999999996</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>133</v>
       </c>
@@ -10398,7 +10398,7 @@
         <v>5.8662999999999998</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>100</v>
       </c>
@@ -10436,7 +10436,7 @@
         <v>5.8632</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10"/>
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
@@ -10450,7 +10450,7 @@
       <c r="K59" s="12"/>
       <c r="L59" s="12"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>102</v>
       </c>
@@ -10488,7 +10488,7 @@
         <v>-14.3368</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>106</v>
       </c>
@@ -10526,7 +10526,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>108</v>
       </c>
@@ -10564,7 +10564,7 @@
         <v>-13.491199999999999</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>110</v>
       </c>
@@ -10602,7 +10602,7 @@
         <v>-14.333299999999999</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>112</v>
       </c>
@@ -10640,7 +10640,7 @@
         <v>-13.490399999999999</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10"/>
       <c r="B65" s="12"/>
       <c r="C65" s="12"/>
@@ -10654,7 +10654,7 @@
       <c r="K65" s="12"/>
       <c r="L65" s="12"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
         <v>141</v>
       </c>
@@ -10670,7 +10670,7 @@
       <c r="K66" s="17"/>
       <c r="L66" s="17"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>0</v>
       </c>
@@ -10708,7 +10708,7 @@
         <v>3.1400999999999999</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>62</v>
       </c>
@@ -10746,7 +10746,7 @@
         <v>2.2784</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>64</v>
       </c>
@@ -10784,7 +10784,7 @@
         <v>4.0122999999999998</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="10" t="s">
         <v>66</v>
       </c>
@@ -10822,7 +10822,7 @@
         <v>4.9527999999999999</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="10" t="s">
         <v>68</v>
       </c>
@@ -10860,7 +10860,7 @@
         <v>4.6966999999999999</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>70</v>
       </c>
@@ -10898,7 +10898,7 @@
         <v>4.6966999999999999</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>72</v>
       </c>
@@ -10936,7 +10936,7 @@
         <v>4.4747000000000003</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>74</v>
       </c>
@@ -10974,7 +10974,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10"/>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
@@ -10988,7 +10988,7 @@
       <c r="K75" s="12"/>
       <c r="L75" s="12"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>76</v>
       </c>
@@ -11026,7 +11026,7 @@
         <v>18.011600000000001</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>78</v>
       </c>
@@ -11064,7 +11064,7 @@
         <v>59.863500000000002</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="10" t="s">
         <v>80</v>
       </c>
@@ -11102,7 +11102,7 @@
         <v>-7.7858999999999998</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>82</v>
       </c>
@@ -11140,7 +11140,7 @@
         <v>12.214399999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="10" t="s">
         <v>84</v>
       </c>
@@ -11178,7 +11178,7 @@
         <v>28.441700000000001</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="10" t="s">
         <v>86</v>
       </c>
@@ -11216,7 +11216,7 @@
         <v>8.4712999999999994</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="10" t="s">
         <v>88</v>
       </c>
@@ -11254,7 +11254,7 @@
         <v>9.65</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="10" t="s">
         <v>90</v>
       </c>
@@ -11292,7 +11292,7 @@
         <v>61.891800000000003</v>
       </c>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>92</v>
       </c>
@@ -11330,7 +11330,7 @@
         <v>-13.597200000000001</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>94</v>
       </c>
@@ -11368,7 +11368,7 @@
         <v>-35.4129</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>96</v>
       </c>
@@ -11406,7 +11406,7 @@
         <v>5.0334000000000003</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>98</v>
       </c>
@@ -11444,7 +11444,7 @@
         <v>4.7087000000000003</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>100</v>
       </c>
@@ -11482,7 +11482,7 @@
         <v>4.8289999999999997</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="10"/>
       <c r="B89" s="12"/>
       <c r="C89" s="12"/>
@@ -11496,7 +11496,7 @@
       <c r="K89" s="12"/>
       <c r="L89" s="12"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>102</v>
       </c>
@@ -11534,7 +11534,7 @@
         <v>-76.560599999999994</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>104</v>
       </c>
@@ -11572,7 +11572,7 @@
         <v>-61.131500000000003</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>106</v>
       </c>
@@ -11610,7 +11610,7 @@
         <v>-156.37950000000001</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>108</v>
       </c>
@@ -11648,7 +11648,7 @@
         <v>-77.549300000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>110</v>
       </c>
@@ -11686,7 +11686,7 @@
         <v>-76.522300000000001</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>112</v>
       </c>
@@ -11724,7 +11724,7 @@
         <v>-77.506600000000006</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
         <v>58</v>
       </c>
@@ -11755,14 +11755,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -11776,7 +11776,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>169</v>
       </c>
@@ -11792,7 +11792,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -11806,7 +11806,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -11842,7 +11842,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -11878,7 +11878,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>170</v>
       </c>
@@ -11916,7 +11916,7 @@
         <v>0.89029999999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>172</v>
       </c>
@@ -11954,7 +11954,7 @@
         <v>3.0165999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>174</v>
       </c>
@@ -11992,7 +11992,7 @@
         <v>1.8041</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>176</v>
       </c>
@@ -12030,7 +12030,7 @@
         <v>0.14000000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>178</v>
       </c>
@@ -12068,7 +12068,7 @@
         <v>74.722300000000004</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -12082,7 +12082,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>180</v>
       </c>
@@ -12120,7 +12120,7 @@
         <v>0.17649999999999999</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>182</v>
       </c>
@@ -12158,7 +12158,7 @@
         <v>0.17560000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>184</v>
       </c>
@@ -12196,7 +12196,7 @@
         <v>0.13200000000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -12210,7 +12210,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>186</v>
       </c>
@@ -12248,7 +12248,7 @@
         <v>0.49759999999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>188</v>
       </c>
@@ -12286,7 +12286,7 @@
         <v>0.49509999999999998</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>190</v>
       </c>
@@ -12324,7 +12324,7 @@
         <v>0.37219999999999998</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10"/>
       <c r="B19" s="12"/>
       <c r="C19" s="12"/>
@@ -12338,7 +12338,7 @@
       <c r="K19" s="12"/>
       <c r="L19" s="12"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>192</v>
       </c>
@@ -12376,7 +12376,7 @@
         <v>11.8024</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>194</v>
       </c>
@@ -12414,7 +12414,7 @@
         <v>10.0146</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>196</v>
       </c>
@@ -12452,7 +12452,7 @@
         <v>6.5420999999999996</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10"/>
       <c r="B23" s="12"/>
       <c r="C23" s="12"/>
@@ -12466,7 +12466,7 @@
       <c r="K23" s="12"/>
       <c r="L23" s="12"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -12480,7 +12480,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>198</v>
       </c>
@@ -12518,7 +12518,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>58</v>
       </c>
@@ -12549,14 +12549,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -12570,7 +12570,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>200</v>
       </c>
@@ -12586,7 +12586,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -12600,7 +12600,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -12636,7 +12636,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -12672,7 +12672,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>201</v>
       </c>
@@ -12710,7 +12710,7 @@
         <v>4.0559000000000003</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>203</v>
       </c>
@@ -12748,7 +12748,7 @@
         <v>89.992500000000007</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>205</v>
       </c>
@@ -12786,7 +12786,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>207</v>
       </c>
@@ -12824,7 +12824,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>209</v>
       </c>
@@ -12862,7 +12862,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>211</v>
       </c>
@@ -12900,7 +12900,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6"/>
       <c r="B12" s="17"/>
       <c r="C12" s="17"/>
@@ -12914,7 +12914,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>213</v>
       </c>
@@ -12952,7 +12952,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>215</v>
       </c>
@@ -12990,7 +12990,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
       <c r="C15" s="17"/>
@@ -13004,7 +13004,7 @@
       <c r="K15" s="17"/>
       <c r="L15" s="17"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>217</v>
       </c>
@@ -13042,7 +13042,7 @@
         <v>1049.4290000000001</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>219</v>
       </c>
@@ -13080,7 +13080,7 @@
         <v>755.57799999999997</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>221</v>
       </c>
@@ -13118,7 +13118,7 @@
         <v>112.21299999999999</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>223</v>
       </c>
@@ -13156,7 +13156,7 @@
         <v>181.63800000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>225</v>
       </c>
@@ -13194,7 +13194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>58</v>
       </c>
@@ -13225,14 +13225,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13246,7 +13246,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>227</v>
       </c>
@@ -13262,7 +13262,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13276,7 +13276,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -13312,7 +13312,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -13348,7 +13348,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>228</v>
       </c>
@@ -13364,7 +13364,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>229</v>
       </c>
@@ -13402,7 +13402,7 @@
         <v>86.780100000000004</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>231</v>
       </c>
@@ -13418,7 +13418,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>232</v>
       </c>
@@ -13456,7 +13456,7 @@
         <v>1.0014000000000001</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>234</v>
       </c>
@@ -13472,7 +13472,7 @@
       <c r="K10" s="17"/>
       <c r="L10" s="17"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>235</v>
       </c>
@@ -13510,7 +13510,7 @@
         <v>99.882499999999993</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>39</v>
       </c>
@@ -13526,7 +13526,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>237</v>
       </c>
@@ -13564,7 +13564,7 @@
         <v>11.5883</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="6" t="s">
         <v>239</v>
       </c>
@@ -13580,7 +13580,7 @@
       <c r="K14" s="17"/>
       <c r="L14" s="17"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>240</v>
       </c>
@@ -13618,7 +13618,7 @@
         <v>0.90380000000000005</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
         <v>242</v>
       </c>
@@ -13634,7 +13634,7 @@
       <c r="K16" s="17"/>
       <c r="L16" s="17"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>243</v>
       </c>
@@ -13672,7 +13672,7 @@
         <v>1.2965</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10"/>
       <c r="B18" s="12"/>
       <c r="C18" s="12"/>
@@ -13686,7 +13686,7 @@
       <c r="K18" s="12"/>
       <c r="L18" s="12"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>245</v>
       </c>
@@ -13724,7 +13724,7 @@
         <v>11.7859</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10"/>
       <c r="B20" s="12"/>
       <c r="C20" s="12"/>
@@ -13738,7 +13738,7 @@
       <c r="K20" s="12"/>
       <c r="L20" s="12"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>247</v>
       </c>
@@ -13776,7 +13776,7 @@
         <v>14.504899999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>249</v>
       </c>
@@ -13814,7 +13814,7 @@
         <v>69.835999999999999</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>56</v>
       </c>
@@ -13852,7 +13852,7 @@
         <v>3.5501</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>58</v>
       </c>
@@ -13883,14 +13883,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -13904,7 +13904,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>250</v>
       </c>
@@ -13920,7 +13920,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -13934,7 +13934,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -13970,7 +13970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -14006,7 +14006,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>251</v>
       </c>
@@ -14044,7 +14044,7 @@
         <v>42.822699999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -14058,7 +14058,7 @@
       <c r="K7" s="12"/>
       <c r="L7" s="12"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="6" t="s">
         <v>253</v>
       </c>
@@ -14074,7 +14074,7 @@
       <c r="K8" s="17"/>
       <c r="L8" s="17"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="6" t="s">
         <v>254</v>
       </c>
@@ -14112,7 +14112,7 @@
         <v>30.9876</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
         <v>256</v>
       </c>
@@ -14150,7 +14150,7 @@
         <v>68.061000000000007</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>258</v>
       </c>
@@ -14188,7 +14188,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
@@ -14202,7 +14202,7 @@
       <c r="K12" s="12"/>
       <c r="L12" s="12"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
         <v>260</v>
       </c>
@@ -14240,7 +14240,7 @@
         <v>114.515</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>262</v>
       </c>
@@ -14278,7 +14278,7 @@
         <v>617.96400000000006</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10"/>
       <c r="B15" s="12"/>
       <c r="C15" s="12"/>
@@ -14292,7 +14292,7 @@
       <c r="K15" s="12"/>
       <c r="L15" s="12"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -14306,7 +14306,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>264</v>
       </c>
@@ -14322,7 +14322,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>265</v>
       </c>
@@ -14360,7 +14360,7 @@
         <v>21.2515</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
         <v>267</v>
       </c>
@@ -14398,7 +14398,7 @@
         <v>9642</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>269</v>
       </c>
@@ -14436,7 +14436,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10"/>
       <c r="B21" s="12"/>
       <c r="C21" s="12"/>
@@ -14450,7 +14450,7 @@
       <c r="K21" s="12"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>271</v>
       </c>
@@ -14488,7 +14488,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>273</v>
       </c>
@@ -14526,7 +14526,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -14540,7 +14540,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>275</v>
       </c>
@@ -14556,7 +14556,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="6" t="s">
         <v>276</v>
       </c>
@@ -14594,7 +14594,7 @@
         <v>76.098699999999994</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>278</v>
       </c>
@@ -14632,7 +14632,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>280</v>
       </c>
@@ -14670,7 +14670,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
         <v>282</v>
       </c>
@@ -14708,7 +14708,7 @@
         <v>88.888999999999996</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>284</v>
       </c>
@@ -14746,7 +14746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>286</v>
       </c>
@@ -14784,7 +14784,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>288</v>
       </c>
@@ -14822,7 +14822,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
         <v>58</v>
       </c>
@@ -14853,14 +14853,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -14874,7 +14874,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>290</v>
       </c>
@@ -14890,7 +14890,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -14904,7 +14904,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -14940,7 +14940,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -14976,7 +14976,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
         <v>291</v>
       </c>
@@ -14992,7 +14992,7 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>251</v>
       </c>
@@ -15030,7 +15030,7 @@
         <v>42.822699999999998</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>254</v>
       </c>
@@ -15068,7 +15068,7 @@
         <v>30.9876</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>265</v>
       </c>
@@ -15106,7 +15106,7 @@
         <v>21.2515</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>276</v>
       </c>
@@ -15144,7 +15144,7 @@
         <v>76.098699999999994</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10"/>
       <c r="B11" s="12"/>
       <c r="C11" s="12"/>
@@ -15158,7 +15158,7 @@
       <c r="K11" s="12"/>
       <c r="L11" s="12"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
         <v>292</v>
       </c>
@@ -15174,7 +15174,7 @@
       <c r="K12" s="17"/>
       <c r="L12" s="17"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>293</v>
       </c>
@@ -15212,7 +15212,7 @@
         <v>21.908100000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>295</v>
       </c>
@@ -15250,7 +15250,7 @@
         <v>95.109200000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>297</v>
       </c>
@@ -15288,7 +15288,7 @@
         <v>299.02069999999998</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10"/>
       <c r="B16" s="12"/>
       <c r="C16" s="12"/>
@@ -15302,7 +15302,7 @@
       <c r="K16" s="12"/>
       <c r="L16" s="12"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
         <v>299</v>
       </c>
@@ -15318,7 +15318,7 @@
       <c r="K17" s="17"/>
       <c r="L17" s="17"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>300</v>
       </c>
@@ -15356,7 +15356,7 @@
         <v>594.34130000000005</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>302</v>
       </c>
@@ -15394,7 +15394,7 @@
         <v>21.908100000000001</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>304</v>
       </c>
@@ -15432,7 +15432,7 @@
         <v>180.36279999999999</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>258</v>
       </c>
@@ -15470,7 +15470,7 @@
         <v>0.59399999999999997</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>306</v>
       </c>
@@ -15508,7 +15508,7 @@
         <v>7.0587999999999997</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>308</v>
       </c>
@@ -15546,7 +15546,7 @@
         <v>18.7225</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="10"/>
       <c r="B24" s="12"/>
       <c r="C24" s="12"/>
@@ -15560,7 +15560,7 @@
       <c r="K24" s="12"/>
       <c r="L24" s="12"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="6" t="s">
         <v>310</v>
       </c>
@@ -15576,7 +15576,7 @@
       <c r="K25" s="17"/>
       <c r="L25" s="17"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>311</v>
       </c>
@@ -15614,7 +15614,7 @@
         <v>36.8611</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>313</v>
       </c>
@@ -15652,7 +15652,7 @@
         <v>303.46679999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>315</v>
       </c>
@@ -15690,7 +15690,7 @@
         <v>11.8767</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>317</v>
       </c>
@@ -15728,7 +15728,7 @@
         <v>31.501200000000001</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10"/>
       <c r="B30" s="12"/>
       <c r="C30" s="12"/>
@@ -15742,7 +15742,7 @@
       <c r="K30" s="12"/>
       <c r="L30" s="12"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
         <v>319</v>
       </c>
@@ -15758,7 +15758,7 @@
       <c r="K31" s="17"/>
       <c r="L31" s="17"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>320</v>
       </c>
@@ -15796,7 +15796,7 @@
         <v>198.91550000000001</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>322</v>
       </c>
@@ -15834,7 +15834,7 @@
         <v>1637.6153999999999</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>324</v>
       </c>
@@ -15872,7 +15872,7 @@
         <v>5396.3585000000003</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>326</v>
       </c>
@@ -15910,7 +15910,7 @@
         <v>64.090900000000005</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>328</v>
       </c>
@@ -15948,7 +15948,7 @@
         <v>169.99160000000001</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10"/>
       <c r="B37" s="12"/>
       <c r="C37" s="12"/>
@@ -15962,7 +15962,7 @@
       <c r="K37" s="12"/>
       <c r="L37" s="12"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
         <v>330</v>
       </c>
@@ -15978,7 +15978,7 @@
       <c r="K38" s="17"/>
       <c r="L38" s="17"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10"/>
       <c r="B39" s="12"/>
       <c r="C39" s="12"/>
@@ -15992,7 +15992,7 @@
       <c r="K39" s="12"/>
       <c r="L39" s="12"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>331</v>
       </c>
@@ -16008,7 +16008,7 @@
       <c r="K40" s="17"/>
       <c r="L40" s="17"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10"/>
       <c r="B41" s="12"/>
       <c r="C41" s="12"/>
@@ -16022,7 +16022,7 @@
       <c r="K41" s="12"/>
       <c r="L41" s="12"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
         <v>264</v>
       </c>
@@ -16038,7 +16038,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>332</v>
       </c>
@@ -16076,7 +16076,7 @@
         <v>2.5928</v>
       </c>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>334</v>
       </c>
@@ -16114,7 +16114,7 @@
         <v>0.17879999999999999</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>336</v>
       </c>
@@ -16152,7 +16152,7 @@
         <v>23715.686300000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>338</v>
       </c>
@@ -16190,7 +16190,7 @@
         <v>8214.6223000000009</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>340</v>
       </c>
@@ -16228,7 +16228,7 @@
         <v>23516.567899999998</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10"/>
       <c r="B48" s="12"/>
       <c r="C48" s="12"/>
@@ -16242,7 +16242,7 @@
       <c r="K48" s="12"/>
       <c r="L48" s="12"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
         <v>275</v>
       </c>
@@ -16258,7 +16258,7 @@
       <c r="K49" s="17"/>
       <c r="L49" s="17"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>342</v>
       </c>
@@ -16296,7 +16296,7 @@
         <v>88.888999999999996</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="10" t="s">
         <v>344</v>
       </c>
@@ -16334,7 +16334,7 @@
         <v>88.888999999999996</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>345</v>
       </c>
@@ -16372,7 +16372,7 @@
         <v>33.332999999999998</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>347</v>
       </c>
@@ -16410,7 +16410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>349</v>
       </c>
@@ -16448,7 +16448,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>350</v>
       </c>
@@ -16486,7 +16486,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="10" t="s">
         <v>352</v>
       </c>
@@ -16524,7 +16524,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>354</v>
       </c>
@@ -16562,7 +16562,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>356</v>
       </c>
@@ -16600,7 +16600,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>358</v>
       </c>
@@ -16638,7 +16638,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>360</v>
       </c>
@@ -16676,7 +16676,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
         <v>58</v>
       </c>
@@ -16707,14 +16707,14 @@
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -16728,7 +16728,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>362</v>
       </c>
@@ -16744,7 +16744,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -16758,7 +16758,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -16794,7 +16794,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -16830,7 +16830,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>82</v>
       </c>
@@ -16846,7 +16846,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="17"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>363</v>
       </c>
@@ -16884,7 +16884,7 @@
         <v>807.93399999999997</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>365</v>
       </c>
@@ -16922,7 +16922,7 @@
         <v>807.93399999999997</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>367</v>
       </c>
@@ -16960,7 +16960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>369</v>
       </c>
@@ -16998,7 +16998,7 @@
         <v>829.245</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>371</v>
       </c>
@@ -17036,7 +17036,7 @@
         <v>829.245</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>373</v>
       </c>
@@ -17074,7 +17074,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>375</v>
       </c>
@@ -17112,7 +17112,7 @@
         <v>20.033000000000001</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>377</v>
       </c>
@@ -17150,7 +17150,7 @@
         <v>1049.4290000000001</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>378</v>
       </c>
@@ -17188,7 +17188,7 @@
         <v>755.57799999999997</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>379</v>
       </c>
@@ -17226,7 +17226,7 @@
         <v>112.21299999999999</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>380</v>
       </c>
@@ -17264,7 +17264,7 @@
         <v>181.63800000000001</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="10" t="s">
         <v>381</v>
       </c>
@@ -17302,7 +17302,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="10" t="s">
         <v>382</v>
       </c>
@@ -17340,7 +17340,7 @@
         <v>30.88</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="10" t="s">
         <v>384</v>
       </c>
@@ -17378,7 +17378,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>386</v>
       </c>
@@ -17416,7 +17416,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>388</v>
       </c>
@@ -17454,7 +17454,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="10" t="s">
         <v>390</v>
       </c>
@@ -17492,7 +17492,7 @@
         <v>30.88</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="6" t="s">
         <v>392</v>
       </c>
@@ -17530,7 +17530,7 @@
         <v>2737.5210000000002</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>394</v>
       </c>
@@ -17568,7 +17568,7 @@
         <v>227.613</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>396</v>
       </c>
@@ -17606,7 +17606,7 @@
         <v>715.60900000000004</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>398</v>
       </c>
@@ -17644,7 +17644,7 @@
         <v>487.99599999999998</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>400</v>
       </c>
@@ -17682,7 +17682,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>402</v>
       </c>
@@ -17720,7 +17720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>404</v>
       </c>
@@ -17758,7 +17758,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>406</v>
       </c>
@@ -17796,7 +17796,7 @@
         <v>670.12699999999995</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>408</v>
       </c>
@@ -17834,7 +17834,7 @@
         <v>640.33100000000002</v>
       </c>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>410</v>
       </c>
@@ -17872,7 +17872,7 @@
         <v>639.70799999999997</v>
       </c>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>412</v>
       </c>
@@ -17910,7 +17910,7 @@
         <v>0.623</v>
       </c>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>414</v>
       </c>
@@ -17948,7 +17948,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>416</v>
       </c>
@@ -17986,7 +17986,7 @@
         <v>3.714</v>
       </c>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="10" t="s">
         <v>386</v>
       </c>
@@ -18024,7 +18024,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="10" t="s">
         <v>419</v>
       </c>
@@ -18062,7 +18062,7 @@
         <v>0.628</v>
       </c>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="10" t="s">
         <v>421</v>
       </c>
@@ -18100,7 +18100,7 @@
         <v>25.454000000000001</v>
       </c>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
         <v>423</v>
       </c>
@@ -18138,7 +18138,7 @@
         <v>897.74</v>
       </c>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
         <v>82</v>
       </c>
@@ -18176,7 +18176,7 @@
         <v>3635.261</v>
       </c>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="6"/>
       <c r="B42" s="17"/>
       <c r="C42" s="17"/>
@@ -18190,7 +18190,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="17"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
         <v>426</v>
       </c>
@@ -18206,7 +18206,7 @@
       <c r="K43" s="17"/>
       <c r="L43" s="17"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>427</v>
       </c>
@@ -18244,7 +18244,7 @@
         <v>825.71600000000001</v>
       </c>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>429</v>
       </c>
@@ -18282,7 +18282,7 @@
         <v>643.59100000000001</v>
       </c>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>431</v>
       </c>
@@ -18320,7 +18320,7 @@
         <v>25.763999999999999</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>433</v>
       </c>
@@ -18358,7 +18358,7 @@
         <v>156.36099999999999</v>
       </c>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>435</v>
       </c>
@@ -18396,7 +18396,7 @@
         <v>8.7309999999999999</v>
       </c>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>437</v>
       </c>
@@ -18434,7 +18434,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="10" t="s">
         <v>439</v>
       </c>
@@ -18472,7 +18472,7 @@
         <v>8.7309999999999999</v>
       </c>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="11" t="s">
         <v>441</v>
       </c>
@@ -18510,7 +18510,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>443</v>
       </c>
@@ -18548,7 +18548,7 @@
         <v>73.052000000000007</v>
       </c>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="10" t="s">
         <v>445</v>
       </c>
@@ -18586,7 +18586,7 @@
         <v>73.052000000000007</v>
       </c>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="10" t="s">
         <v>447</v>
       </c>
@@ -18624,7 +18624,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="10" t="s">
         <v>449</v>
       </c>
@@ -18662,7 +18662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>451</v>
       </c>
@@ -18700,7 +18700,7 @@
         <v>907.49900000000002</v>
       </c>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="10" t="s">
         <v>453</v>
       </c>
@@ -18738,7 +18738,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="10" t="s">
         <v>455</v>
       </c>
@@ -18776,7 +18776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="10" t="s">
         <v>457</v>
       </c>
@@ -18814,7 +18814,7 @@
         <v>4.8</v>
       </c>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="11" t="s">
         <v>459</v>
       </c>
@@ -18852,7 +18852,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>461</v>
       </c>
@@ -18890,7 +18890,7 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>463</v>
       </c>
@@ -18928,7 +18928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>465</v>
       </c>
@@ -18966,7 +18966,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="11" t="s">
         <v>467</v>
       </c>
@@ -19004,7 +19004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="11" t="s">
         <v>469</v>
       </c>
@@ -19042,7 +19042,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>445</v>
       </c>
@@ -19080,7 +19080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>472</v>
       </c>
@@ -19118,7 +19118,7 @@
         <v>3.512</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>447</v>
       </c>
@@ -19156,7 +19156,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="10" t="s">
         <v>475</v>
       </c>
@@ -19194,7 +19194,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
         <v>477</v>
       </c>
@@ -19232,7 +19232,7 @@
         <v>8.3119999999999994</v>
       </c>
     </row>
-    <row r="71" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
         <v>479</v>
       </c>
@@ -19270,7 +19270,7 @@
         <v>915.81100000000004</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A72" s="10" t="s">
         <v>481</v>
       </c>
@@ -19308,7 +19308,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A73" s="10" t="s">
         <v>483</v>
       </c>
@@ -19346,7 +19346,7 @@
         <v>832.827</v>
       </c>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A74" s="10" t="s">
         <v>485</v>
       </c>
@@ -19384,7 +19384,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A75" s="10" t="s">
         <v>487</v>
       </c>
@@ -19422,7 +19422,7 @@
         <v>16.061</v>
       </c>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A76" s="10" t="s">
         <v>489</v>
       </c>
@@ -19460,7 +19460,7 @@
         <v>1948.3489999999999</v>
       </c>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A77" s="10" t="s">
         <v>491</v>
       </c>
@@ -19498,7 +19498,7 @@
         <v>-48.762999999999998</v>
       </c>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
         <v>493</v>
       </c>
@@ -19536,7 +19536,7 @@
         <v>2716.3519999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A79" s="10" t="s">
         <v>495</v>
       </c>
@@ -19574,7 +19574,7 @@
         <v>3.0979999999999999</v>
       </c>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
         <v>96</v>
       </c>
@@ -19612,7 +19612,7 @@
         <v>2719.45</v>
       </c>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
         <v>498</v>
       </c>
@@ -19650,7 +19650,7 @@
         <v>3635.261</v>
       </c>
     </row>
-    <row r="82" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A82" s="6"/>
       <c r="B82" s="17"/>
       <c r="C82" s="17"/>
@@ -19664,7 +19664,7 @@
       <c r="K82" s="17"/>
       <c r="L82" s="17"/>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
         <v>2</v>
       </c>
@@ -19680,7 +19680,7 @@
       <c r="K83" s="17"/>
       <c r="L83" s="17"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A84" s="10" t="s">
         <v>500</v>
       </c>
@@ -19718,7 +19718,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A85" s="10" t="s">
         <v>503</v>
       </c>
@@ -19756,7 +19756,7 @@
         <v>290.56760000000003</v>
       </c>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A86" s="10" t="s">
         <v>505</v>
       </c>
@@ -19794,7 +19794,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A87" s="10" t="s">
         <v>507</v>
       </c>
@@ -19832,7 +19832,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A88" s="10" t="s">
         <v>509</v>
       </c>
@@ -19870,7 +19870,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A89" s="10" t="s">
         <v>511</v>
       </c>
@@ -19908,7 +19908,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A90" s="10" t="s">
         <v>513</v>
       </c>
@@ -19946,7 +19946,7 @@
         <v>12931</v>
       </c>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A91" s="10" t="s">
         <v>515</v>
       </c>
@@ -19984,7 +19984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A92" s="10" t="s">
         <v>517</v>
       </c>
@@ -20022,7 +20022,7 @@
         <v>2.0125000000000002</v>
       </c>
     </row>
-    <row r="93" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A93" s="10" t="s">
         <v>519</v>
       </c>
@@ -20060,7 +20060,7 @@
         <v>-794.40300000000002</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A94" s="10" t="s">
         <v>521</v>
       </c>
@@ -20098,7 +20098,7 @@
         <v>-29.2119</v>
       </c>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A95" s="10" t="s">
         <v>523</v>
       </c>
@@ -20136,7 +20136,7 @@
         <v>69.317800000000005</v>
       </c>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A96" s="10" t="s">
         <v>172</v>
       </c>
@@ -20174,7 +20174,7 @@
         <v>3.0165999999999999</v>
       </c>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A97" s="10" t="s">
         <v>213</v>
       </c>
@@ -20212,7 +20212,7 @@
         <v>817</v>
       </c>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A98" s="10" t="s">
         <v>267</v>
       </c>
@@ -20250,7 +20250,7 @@
         <v>13158</v>
       </c>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A99" s="7" t="s">
         <v>58</v>
       </c>
@@ -20277,18 +20277,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
+    <col min="1" max="1" width="35.140625" customWidth="1"/>
     <col min="2" max="2" width="0" hidden="1" customWidth="1"/>
-    <col min="3" max="12" width="11.81640625" customWidth="1"/>
+    <col min="3" max="12" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
@@ -20302,7 +20302,7 @@
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
     </row>
-    <row r="2" spans="1:12" ht="20" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>362</v>
       </c>
@@ -20318,7 +20318,7 @@
       <c r="K2" s="8"/>
       <c r="L2" s="8"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -20332,7 +20332,7 @@
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>5</v>
       </c>
@@ -20368,7 +20368,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>16</v>
       </c>
@@ -20404,7 +20404,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="6" t="s">
         <v>527</v>
       </c>
@@ -20420,7 +20420,7 @@
       <c r="K6" s="17"/>
       <c r="L6" s="20"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="10" t="s">
         <v>528</v>
       </c>
@@ -20456,7 +20456,7 @@
       </c>
       <c r="L7" s="15"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="10" t="s">
         <v>530</v>
       </c>
@@ -20492,7 +20492,7 @@
       </c>
       <c r="L8" s="15"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="10" t="s">
         <v>532</v>
       </c>
@@ -20528,7 +20528,7 @@
       </c>
       <c r="L9" s="15"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="10" t="s">
         <v>534</v>
       </c>
@@ -20564,7 +20564,7 @@
       </c>
       <c r="L10" s="15"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="10" t="s">
         <v>536</v>
       </c>
@@ -20600,7 +20600,7 @@
       </c>
       <c r="L11" s="15"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="10" t="s">
         <v>538</v>
       </c>
@@ -20636,7 +20636,7 @@
       </c>
       <c r="L12" s="15"/>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="10" t="s">
         <v>540</v>
       </c>
@@ -20672,7 +20672,7 @@
       </c>
       <c r="L13" s="15"/>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="10" t="s">
         <v>542</v>
       </c>
@@ -20708,7 +20708,7 @@
       </c>
       <c r="L14" s="15"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A15" s="10" t="s">
         <v>544</v>
       </c>
@@ -20744,7 +20744,7 @@
       </c>
       <c r="L15" s="15"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16" s="10" t="s">
         <v>546</v>
       </c>
@@ -20780,7 +20780,7 @@
       </c>
       <c r="L16" s="15"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17" s="10" t="s">
         <v>548</v>
       </c>
@@ -20816,7 +20816,7 @@
       </c>
       <c r="L17" s="15"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
         <v>527</v>
       </c>
@@ -20852,7 +20852,7 @@
       </c>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
       <c r="B19" s="17"/>
       <c r="C19" s="17"/>
@@ -20866,7 +20866,7 @@
       <c r="K19" s="17"/>
       <c r="L19" s="20"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20" s="6" t="s">
         <v>551</v>
       </c>
@@ -20882,7 +20882,7 @@
       <c r="K20" s="17"/>
       <c r="L20" s="20"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21" s="10" t="s">
         <v>552</v>
       </c>
@@ -20920,7 +20920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22" s="10" t="s">
         <v>554</v>
       </c>
@@ -20958,7 +20958,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>556</v>
       </c>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="L23" s="23"/>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>558</v>
       </c>
@@ -21030,7 +21030,7 @@
       </c>
       <c r="L24" s="23"/>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25" s="10" t="s">
         <v>560</v>
       </c>
@@ -21068,7 +21068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26" s="11" t="s">
         <v>562</v>
       </c>
@@ -21104,7 +21104,7 @@
       </c>
       <c r="L26" s="23"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27" s="11" t="s">
         <v>564</v>
       </c>
@@ -21140,7 +21140,7 @@
       </c>
       <c r="L27" s="23"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" s="10" t="s">
         <v>566</v>
       </c>
@@ -21176,7 +21176,7 @@
       </c>
       <c r="L28" s="15"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" s="10" t="s">
         <v>568</v>
       </c>
@@ -21212,7 +21212,7 @@
       </c>
       <c r="L29" s="15"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" s="10" t="s">
         <v>570</v>
       </c>
@@ -21248,7 +21248,7 @@
       </c>
       <c r="L30" s="15"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" s="10" t="s">
         <v>572</v>
       </c>
@@ -21284,7 +21284,7 @@
       </c>
       <c r="L31" s="15"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" s="10" t="s">
         <v>574</v>
       </c>
@@ -21320,7 +21320,7 @@
       </c>
       <c r="L32" s="15"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A33" s="10" t="s">
         <v>576</v>
       </c>
@@ -21356,7 +21356,7 @@
       </c>
       <c r="L33" s="15"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A34" s="10" t="s">
         <v>578</v>
       </c>
@@ -21392,7 +21392,7 @@
       </c>
       <c r="L34" s="15"/>
     </row>
-    <row r="35" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A35" s="10" t="s">
         <v>580</v>
       </c>
@@ -21430,7 +21430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A36" s="10" t="s">
         <v>548</v>
       </c>
@@ -21466,7 +21466,7 @@
       </c>
       <c r="L36" s="15"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
         <v>551</v>
       </c>
@@ -21502,7 +21502,7 @@
       </c>
       <c r="L37" s="21"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A38" s="6"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -21516,7 +21516,7 @@
       <c r="K38" s="17"/>
       <c r="L38" s="20"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
         <v>584</v>
       </c>
@@ -21532,7 +21532,7 @@
       <c r="K39" s="17"/>
       <c r="L39" s="20"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A40" s="10" t="s">
         <v>585</v>
       </c>
@@ -21568,7 +21568,7 @@
       </c>
       <c r="L40" s="15"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A41" s="10" t="s">
         <v>587</v>
       </c>
@@ -21604,7 +21604,7 @@
       </c>
       <c r="L41" s="15"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A42" s="10" t="s">
         <v>589</v>
       </c>
@@ -21640,7 +21640,7 @@
       </c>
       <c r="L42" s="15"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A43" s="10" t="s">
         <v>591</v>
       </c>
@@ -21676,7 +21676,7 @@
       </c>
       <c r="L43" s="15"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A44" s="10" t="s">
         <v>593</v>
       </c>
@@ -21712,7 +21712,7 @@
       </c>
       <c r="L44" s="15"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A45" s="10" t="s">
         <v>595</v>
       </c>
@@ -21748,7 +21748,7 @@
       </c>
       <c r="L45" s="15"/>
     </row>
-    <row r="46" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A46" s="10" t="s">
         <v>597</v>
       </c>
@@ -21784,7 +21784,7 @@
       </c>
       <c r="L46" s="15"/>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A47" s="10" t="s">
         <v>599</v>
       </c>
@@ -21820,7 +21820,7 @@
       </c>
       <c r="L47" s="15"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A48" s="10" t="s">
         <v>601</v>
       </c>
@@ -21856,7 +21856,7 @@
       </c>
       <c r="L48" s="15"/>
     </row>
-    <row r="49" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A49" s="10" t="s">
         <v>548</v>
       </c>
@@ -21892,7 +21892,7 @@
       </c>
       <c r="L49" s="15"/>
     </row>
-    <row r="50" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
         <v>584</v>
       </c>
@@ -21928,7 +21928,7 @@
       </c>
       <c r="L50" s="21"/>
     </row>
-    <row r="51" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A51" s="6"/>
       <c r="B51" s="17"/>
       <c r="C51" s="17"/>
@@ -21942,7 +21942,7 @@
       <c r="K51" s="17"/>
       <c r="L51" s="20"/>
     </row>
-    <row r="52" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A52" s="10" t="s">
         <v>605</v>
       </c>
@@ -21978,7 +21978,7 @@
       </c>
       <c r="L52" s="15"/>
     </row>
-    <row r="53" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A53" s="6"/>
       <c r="B53" s="17"/>
       <c r="C53" s="17"/>
@@ -21992,7 +21992,7 @@
       <c r="K53" s="17"/>
       <c r="L53" s="20"/>
     </row>
-    <row r="54" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
         <v>607</v>
       </c>
@@ -22028,7 +22028,7 @@
       </c>
       <c r="L54" s="21"/>
     </row>
-    <row r="55" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A55" s="6"/>
       <c r="B55" s="17"/>
       <c r="C55" s="17"/>
@@ -22042,7 +22042,7 @@
       <c r="K55" s="17"/>
       <c r="L55" s="20"/>
     </row>
-    <row r="56" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
         <v>609</v>
       </c>
@@ -22078,7 +22078,7 @@
       </c>
       <c r="L56" s="21"/>
     </row>
-    <row r="57" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
         <v>611</v>
       </c>
@@ -22114,7 +22114,7 @@
       </c>
       <c r="L57" s="21"/>
     </row>
-    <row r="58" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A58" s="6"/>
       <c r="B58" s="17"/>
       <c r="C58" s="17"/>
@@ -22128,7 +22128,7 @@
       <c r="K58" s="17"/>
       <c r="L58" s="20"/>
     </row>
-    <row r="59" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
         <v>2</v>
       </c>
@@ -22144,7 +22144,7 @@
       <c r="K59" s="17"/>
       <c r="L59" s="20"/>
     </row>
-    <row r="60" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A60" s="10" t="s">
         <v>62</v>
       </c>
@@ -22180,7 +22180,7 @@
       </c>
       <c r="L60" s="15"/>
     </row>
-    <row r="61" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A61" s="10" t="s">
         <v>613</v>
       </c>
@@ -22216,7 +22216,7 @@
       </c>
       <c r="L61" s="16"/>
     </row>
-    <row r="62" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A62" s="10" t="s">
         <v>615</v>
       </c>
@@ -22252,7 +22252,7 @@
       </c>
       <c r="L62" s="15"/>
     </row>
-    <row r="63" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A63" s="10" t="s">
         <v>108</v>
       </c>
@@ -22288,7 +22288,7 @@
       </c>
       <c r="L63" s="15"/>
     </row>
-    <row r="64" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A64" s="10" t="s">
         <v>112</v>
       </c>
@@ -22324,7 +22324,7 @@
       </c>
       <c r="L64" s="15"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A65" s="10" t="s">
         <v>619</v>
       </c>
@@ -22360,7 +22360,7 @@
       </c>
       <c r="L65" s="15"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A66" s="10" t="s">
         <v>621</v>
       </c>
@@ -22396,7 +22396,7 @@
       </c>
       <c r="L66" s="16"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A67" s="10" t="s">
         <v>623</v>
       </c>
@@ -22434,7 +22434,7 @@
         <v>50.080120404438297</v>
       </c>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A68" s="10" t="s">
         <v>625</v>
       </c>
@@ -22470,7 +22470,7 @@
       </c>
       <c r="L68" s="16"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
         <v>58</v>
       </c>

--- a/Financial Information/VENTURE CORPORATION LIMITED.xlsx
+++ b/Financial Information/VENTURE CORPORATION LIMITED.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jeremy Chia\Documents\GitHub\NLP-SustainabilityReports-FinancialPerformance\Financial Information\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39A0AFE4-69D8-43F9-8D1C-EE4D8A6F81CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD4FAFAB-38AD-47B5-927B-57833D6EB5F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="2940" windowWidth="21600" windowHeight="11385" firstSheet="8" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="7" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Profitability" sheetId="2" r:id="rId1"/>
@@ -16703,7 +16703,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:L99"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
@@ -20277,7 +20277,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:L69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="K20" sqref="K20"/>
     </sheetView>
   </sheetViews>
